--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_100_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_100_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.003037619159868102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1552118661183123</v>
+        <v>0.1552214857616439</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1410922285641208</v>
+        <v>0.141089890749313</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1713036026282181</v>
+        <v>0.1713753914567943</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03967758400870578</v>
+        <v>0.03968545406837472</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03644765244747798</v>
+        <v>0.0364358906778736</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04312531518855761</v>
+        <v>0.0430570133899322</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003019333796221881</v>
+        <v>0.003019661234105025</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002773567382961639</v>
+        <v>0.002773714371672874</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003284106725570604</v>
+        <v>0.00328153318870694</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0008534260257186952</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003685964629877715</v>
+        <v>0.003685934519209092</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003326921674571986</v>
+        <v>0.00332854167516706</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004074768047191172</v>
+        <v>0.004077437427726348</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003412695302607955</v>
+        <v>0.003412681060153116</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00308371292448364</v>
+        <v>0.003085385819465044</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00376567344487323</v>
+        <v>0.003768171204735434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003851391094751813</v>
+        <v>0.003851364485882284</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003485087501910521</v>
+        <v>0.00348659501211355</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004247579654212202</v>
+        <v>0.004250242162662589</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.003891045185586797</v>
       </c>
       <c r="F4" t="n">
-        <v>0.15889783074819</v>
+        <v>0.158907420280853</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1444191502386928</v>
+        <v>0.14441843242448</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1753783706754093</v>
+        <v>0.1754528288845206</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04309027931131373</v>
+        <v>0.04309813512852784</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03953136537196161</v>
+        <v>0.03952127649733864</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04689098863343084</v>
+        <v>0.04682518459466765</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006870724890973694</v>
+        <v>0.006871025719987309</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006258654884872161</v>
+        <v>0.006260309383786424</v>
       </c>
       <c r="N4" t="n">
-        <v>0.007531686379782807</v>
+        <v>0.00753177535136953</v>
       </c>
     </row>
   </sheetData>

--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_100_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_100_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.003037619159868102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1552214857616439</v>
+        <v>0.1552161046161126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.141089890749313</v>
+        <v>0.1411680281350563</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1713753914567943</v>
+        <v>0.1713843310012865</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03968545406837472</v>
+        <v>0.0396833690870082</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0364358906778736</v>
+        <v>0.03642527173980338</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0430570133899322</v>
+        <v>0.04305418613408997</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003019661234105025</v>
+        <v>0.003019563581465055</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002773714371672874</v>
+        <v>0.002773256868882951</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00328153318870694</v>
+        <v>0.003280961553341899</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0008534260257186952</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003685934519209092</v>
+        <v>0.003685867590688261</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00332854167516706</v>
+        <v>0.003327054900671778</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004077437427726348</v>
+        <v>0.004075816473636272</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003412681060153116</v>
+        <v>0.003412626174310284</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003085385819465044</v>
+        <v>0.003083974486508281</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003768171204735434</v>
+        <v>0.003766644421737429</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003851364485882284</v>
+        <v>0.003851298669062585</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00348659501211355</v>
+        <v>0.003485094273513843</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004250242162662589</v>
+        <v>0.004248631527123151</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.003891045185586797</v>
       </c>
       <c r="F4" t="n">
-        <v>0.158907420280853</v>
+        <v>0.1589019722068008</v>
       </c>
       <c r="G4" t="n">
-        <v>0.14441843242448</v>
+        <v>0.1444950830357281</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1754528288845206</v>
+        <v>0.1754601474749228</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04309813512852784</v>
+        <v>0.04309599526131849</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03952127649733864</v>
+        <v>0.03950924622631166</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04682518459466765</v>
+        <v>0.0468208305558274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006871025719987309</v>
+        <v>0.00687086225052764</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006260309383786424</v>
+        <v>0.006258351142396795</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00753177535136953</v>
+        <v>0.00752959308046505</v>
       </c>
     </row>
   </sheetData>
